--- a/data-business-operation/src/test/java/com/centit/support/test/TestStatDataset.xlsx
+++ b/data-business-operation/src/test/java/com/centit/support/test/TestStatDataset.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="initData" sheetId="1" r:id="rId1"/>
     <sheet name="GroupFields" sheetId="2" r:id="rId2"/>
     <sheet name="result" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -83,8 +83,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="177" formatCode="0.0_ "/>
-    <numFmt numFmtId="183" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -140,8 +140,8 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -449,7 +449,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -618,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -665,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
